--- a/mybatis/src/main/resources/excel/reportsBusinessYearDetail.xlsx
+++ b/mybatis/src/main/resources/excel/reportsBusinessYearDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lrq/Documents/javaWorkspace/springboot-learning/mybatis/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D8E1421A-9DA4-3844-A493-61B2E1210C10}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAAF5822-F84E-7D42-AE6C-4ECB37165C4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="940" windowWidth="27700" windowHeight="15680" xr2:uid="{C31FF75A-9EA0-A243-89FC-1EBC95733F69}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="2">
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>dateLong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <rPh sb="0" eb="2">
+      <t>wang'zh</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +167,7 @@
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +208,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,12 +235,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,27 +271,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6053AE3-3BE7-BE41-85E6-72791CC870F8}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -587,50 +621,55 @@
     <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="24">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
@@ -646,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22CFB5-62F0-3743-84F0-476BD8DB6905}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -658,9 +697,10 @@
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -682,8 +722,11 @@
       <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,8 +748,11 @@
       <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -725,17 +771,23 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>43245</v>
       </c>
+      <c r="H3" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{B80A7979-F89B-6A4D-97F2-B4262A9BFC8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>